--- a/data/trans_orig/P37B_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37B_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37F7941F-D144-47E9-82C4-3CF26ED22679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{508282A6-AFCF-4B27-B869-9479643F3B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A953014B-FD72-4040-B048-2EBA7B13E641}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{63F03D83-B0EB-4492-978B-A32D14AFF19E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="194">
   <si>
     <t>Población según el motivo por el que NO se vacunaron de la gripe en 2023 (Tasa respuesta: 57,66%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>10,74%</t>
   </si>
   <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
   </si>
   <si>
     <t>16,63%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
   </si>
   <si>
     <t>13,94%</t>
   </si>
   <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
   </si>
   <si>
     <t>Creo que las vacunas son peligrosas</t>
@@ -104,19 +104,19 @@
     <t>1,3%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
   </si>
   <si>
     <t>1,43%</t>
@@ -125,7 +125,7 @@
     <t>0,72%</t>
   </si>
   <si>
-    <t>2,73%</t>
+    <t>2,72%</t>
   </si>
   <si>
     <t>Creo que las vacunas no son necesarias</t>
@@ -134,481 +134,487 @@
     <t>5,25%</t>
   </si>
   <si>
-    <t>2,8%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>Creo que aún no tengo necesidad de ponérmela</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>El/la médico/a me indicó que no hacía falta</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
   </si>
   <si>
     <t>8,79%</t>
   </si>
   <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>Creo que aún no tengo necesidad de ponérmela</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>El/la médico/a me indicó que no hacía falta</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
     <t>76,84%</t>
   </si>
   <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
   </si>
   <si>
     <t>77,68%</t>
   </si>
   <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
   </si>
   <si>
     <t>77,27%</t>
   </si>
   <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
+    <t>7,49%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1023,7 +1029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEC199F-7576-40B2-98D2-195B435AA50B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D92BD2-C489-42E1-8BC6-C799FFB6F91D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1524,10 +1530,10 @@
         <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -1536,13 +1542,13 @@
         <v>17063</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,13 +1563,13 @@
         <v>36589</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>44</v>
@@ -1572,13 +1578,13 @@
         <v>33307</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>84</v>
@@ -1587,13 +1593,13 @@
         <v>69897</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,43 +1614,43 @@
         <v>1207870</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>1517</v>
       </c>
       <c r="I13" s="7">
-        <v>1198096</v>
+        <v>1198095</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>2581</v>
       </c>
       <c r="N13" s="7">
-        <v>2405965</v>
+        <v>2405966</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,13 +1665,13 @@
         <v>120171</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>199</v>
@@ -1674,13 +1680,13 @@
         <v>146706</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>309</v>
@@ -1689,13 +1695,13 @@
         <v>266877</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,7 +1728,7 @@
         <v>1965</v>
       </c>
       <c r="I15" s="7">
-        <v>1526754</v>
+        <v>1526753</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -1737,7 +1743,7 @@
         <v>3292</v>
       </c>
       <c r="N15" s="7">
-        <v>3089603</v>
+        <v>3089604</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -1751,7 +1757,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1763,13 +1769,13 @@
         <v>45918</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -1778,13 +1784,13 @@
         <v>46748</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>99</v>
@@ -1793,13 +1799,13 @@
         <v>92666</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>57</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,13 +1820,13 @@
         <v>160</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -1829,13 +1835,13 @@
         <v>2572</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -1844,13 +1850,13 @@
         <v>2732</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,13 +1871,13 @@
         <v>25650</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -1880,13 +1886,13 @@
         <v>13013</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>45</v>
@@ -1895,13 +1901,13 @@
         <v>38663</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,13 +1922,13 @@
         <v>338245</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>517</v>
@@ -1931,13 +1937,13 @@
         <v>384516</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>831</v>
@@ -1946,13 +1952,13 @@
         <v>722761</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,13 +1973,13 @@
         <v>25496</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -1982,13 +1988,13 @@
         <v>32670</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>73</v>
@@ -1997,13 +2003,13 @@
         <v>58165</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,13 +2077,13 @@
         <v>266040</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>321</v>
@@ -2086,13 +2092,13 @@
         <v>227724</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>496</v>
@@ -2101,13 +2107,13 @@
         <v>493764</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,13 +2128,13 @@
         <v>6417</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -2140,10 +2146,10 @@
         <v>74</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>40</v>
@@ -2152,13 +2158,13 @@
         <v>27134</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,13 +2179,13 @@
         <v>74521</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>84</v>
@@ -2188,13 +2194,13 @@
         <v>64490</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>162</v>
@@ -2203,13 +2209,13 @@
         <v>139011</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,13 +2230,13 @@
         <v>1715299</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>2329</v>
@@ -2239,13 +2245,13 @@
         <v>1774323</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>3896</v>
@@ -2254,13 +2260,13 @@
         <v>3489622</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,13 +2281,13 @@
         <v>169894</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>276</v>
@@ -2290,13 +2296,13 @@
         <v>196749</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="M26" s="7">
         <v>436</v>
@@ -2305,13 +2311,13 @@
         <v>366644</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,7 +2373,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37B_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37B_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{508282A6-AFCF-4B27-B869-9479643F3B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0BD1D83-CF78-4549-9861-677D595032C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{63F03D83-B0EB-4492-978B-A32D14AFF19E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3D2712A7-C5CF-46FE-A4D3-068AFAD14530}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1029,7 +1029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D92BD2-C489-42E1-8BC6-C799FFB6F91D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C80B891-51EB-45ED-82E0-0BE6F93C5BB8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P37B_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37B_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0BD1D83-CF78-4549-9861-677D595032C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C666128F-DD4F-4DB9-A84E-6342C6927E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3D2712A7-C5CF-46FE-A4D3-068AFAD14530}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8EF6AFEB-54CC-4E7D-ABC2-9F60BA67F4EA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="192">
   <si>
     <t>Población según el motivo por el que NO se vacunaron de la gripe en 2023 (Tasa respuesta: 57,66%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>10,74%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
   </si>
   <si>
     <t>16,63%</t>
   </si>
   <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
   </si>
   <si>
     <t>13,94%</t>
   </si>
   <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
   </si>
   <si>
     <t>Creo que las vacunas son peligrosas</t>
@@ -104,19 +104,19 @@
     <t>1,3%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
   </si>
   <si>
     <t>1,43%</t>
@@ -125,7 +125,7 @@
     <t>0,72%</t>
   </si>
   <si>
-    <t>2,72%</t>
+    <t>2,73%</t>
   </si>
   <si>
     <t>Creo que las vacunas no son necesarias</t>
@@ -134,28 +134,28 @@
     <t>5,25%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
   </si>
   <si>
     <t>6,54%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
   </si>
   <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
   </si>
   <si>
     <t>Creo que aún no tengo necesidad de ponérmela</t>
@@ -164,10 +164,10 @@
     <t>72,35%</t>
   </si>
   <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
   </si>
   <si>
     <t>69,03%</t>
@@ -176,16 +176,16 @@
     <t>62,75%</t>
   </si>
   <si>
-    <t>73,75%</t>
+    <t>74,04%</t>
   </si>
   <si>
     <t>70,54%</t>
   </si>
   <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
   </si>
   <si>
     <t>El/la médico/a me indicó que no hacía falta</t>
@@ -194,28 +194,28 @@
     <t>10,36%</t>
   </si>
   <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
   </si>
   <si>
     <t>8,13%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
   </si>
   <si>
     <t>100%</t>
@@ -227,10 +227,10 @@
     <t>12,48%</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
   </si>
   <si>
     <t>8,83%</t>
@@ -239,382 +239,376 @@
     <t>7,52%</t>
   </si>
   <si>
-    <t>10,58%</t>
+    <t>10,38%</t>
   </si>
   <si>
     <t>10,67%</t>
   </si>
   <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
   </si>
   <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
+    <t>1,45%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>2,34%</t>
   </si>
   <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
   </si>
   <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
   </si>
   <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
+    <t>9,77%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1029,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C80B891-51EB-45ED-82E0-0BE6F93C5BB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8CED2D-A9BB-48E3-A441-65971FB31700}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1530,10 +1524,10 @@
         <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -1542,13 +1536,13 @@
         <v>17063</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1563,13 +1557,13 @@
         <v>36589</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>44</v>
@@ -1578,13 +1572,13 @@
         <v>33307</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>84</v>
@@ -1593,13 +1587,13 @@
         <v>69897</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,43 +1608,43 @@
         <v>1207870</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>1517</v>
       </c>
       <c r="I13" s="7">
-        <v>1198095</v>
+        <v>1198096</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>2581</v>
       </c>
       <c r="N13" s="7">
-        <v>2405966</v>
+        <v>2405965</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,13 +1659,13 @@
         <v>120171</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>199</v>
@@ -1680,13 +1674,13 @@
         <v>146706</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>309</v>
@@ -1695,13 +1689,13 @@
         <v>266877</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,7 +1722,7 @@
         <v>1965</v>
       </c>
       <c r="I15" s="7">
-        <v>1526753</v>
+        <v>1526754</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -1743,7 +1737,7 @@
         <v>3292</v>
       </c>
       <c r="N15" s="7">
-        <v>3089604</v>
+        <v>3089603</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -1757,7 +1751,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1769,13 +1763,13 @@
         <v>45918</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -1784,13 +1778,13 @@
         <v>46748</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>99</v>
@@ -1799,13 +1793,13 @@
         <v>92666</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>57</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,13 +1814,13 @@
         <v>160</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -1835,13 +1829,13 @@
         <v>2572</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -1850,13 +1844,13 @@
         <v>2732</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,13 +1865,13 @@
         <v>25650</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -1886,13 +1880,13 @@
         <v>13013</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>45</v>
@@ -1901,13 +1895,13 @@
         <v>38663</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,13 +1916,13 @@
         <v>338245</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>517</v>
@@ -1937,13 +1931,13 @@
         <v>384516</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>831</v>
@@ -1952,13 +1946,13 @@
         <v>722761</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,13 +1967,13 @@
         <v>25496</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -1988,13 +1982,13 @@
         <v>32670</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>73</v>
@@ -2003,13 +1997,13 @@
         <v>58165</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,13 +2071,13 @@
         <v>266040</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>321</v>
@@ -2092,13 +2086,13 @@
         <v>227724</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>496</v>
@@ -2107,13 +2101,13 @@
         <v>493764</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,13 +2122,13 @@
         <v>6417</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -2146,10 +2140,10 @@
         <v>74</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>40</v>
@@ -2158,13 +2152,13 @@
         <v>27134</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,13 +2173,13 @@
         <v>74521</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>84</v>
@@ -2194,13 +2188,13 @@
         <v>64490</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>162</v>
@@ -2209,13 +2203,13 @@
         <v>139011</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,13 +2224,13 @@
         <v>1715299</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>2329</v>
@@ -2245,13 +2239,13 @@
         <v>1774323</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>3896</v>
@@ -2260,13 +2254,13 @@
         <v>3489622</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,13 +2275,13 @@
         <v>169894</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>276</v>
@@ -2296,13 +2290,13 @@
         <v>196749</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>436</v>
@@ -2311,13 +2305,13 @@
         <v>366644</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,7 +2367,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37B_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37B_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C666128F-DD4F-4DB9-A84E-6342C6927E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE3D2200-1A74-4157-AB27-22DFD6435249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8EF6AFEB-54CC-4E7D-ABC2-9F60BA67F4EA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9FD80EB2-2B2E-489D-A4DB-80F4832CBC19}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="193">
   <si>
     <t>Población según el motivo por el que NO se vacunaron de la gripe en 2023 (Tasa respuesta: 57,66%)</t>
   </si>
@@ -71,544 +71,547 @@
     <t>Otros</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
   </si>
   <si>
     <t>11,45%</t>
   </si>
   <si>
-    <t>16,71%</t>
+    <t>16,77%</t>
   </si>
   <si>
     <t>Creo que las vacunas son peligrosas</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>1,55%</t>
+    <t>1,57%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>3,22%</t>
+    <t>3,27%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>Creo que las vacunas no son necesarias</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>Creo que aún no tengo necesidad de ponérmela</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>El/la médico/a me indicó que no hacía falta</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
     <t>0,72%</t>
   </si>
   <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>Creo que las vacunas no son necesarias</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>Creo que aún no tengo necesidad de ponérmela</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>El/la médico/a me indicó que no hacía falta</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
   </si>
   <si>
     <t>78,99%</t>
   </si>
   <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
   </si>
   <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
+    <t>6,1%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1023,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8CED2D-A9BB-48E3-A441-65971FB31700}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0ED88D7-4321-44E3-AD67-040D5BC7C9F4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1144,7 +1147,7 @@
         <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>25120</v>
+        <v>24230</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1159,7 +1162,7 @@
         <v>75</v>
       </c>
       <c r="I4" s="7">
-        <v>46178</v>
+        <v>42549</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1174,7 +1177,7 @@
         <v>104</v>
       </c>
       <c r="N4" s="7">
-        <v>71298</v>
+        <v>66779</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1195,7 +1198,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>3041</v>
+        <v>2905</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1210,7 +1213,7 @@
         <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>4298</v>
+        <v>3977</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1225,7 +1228,7 @@
         <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>7339</v>
+        <v>6882</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1246,7 +1249,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>12282</v>
+        <v>11209</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1261,7 +1264,7 @@
         <v>19</v>
       </c>
       <c r="I6" s="7">
-        <v>18169</v>
+        <v>15289</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1276,7 +1279,7 @@
         <v>33</v>
       </c>
       <c r="N6" s="7">
-        <v>30451</v>
+        <v>26498</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1297,7 +1300,7 @@
         <v>189</v>
       </c>
       <c r="D7" s="7">
-        <v>169185</v>
+        <v>164773</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1312,7 +1315,7 @@
         <v>295</v>
       </c>
       <c r="I7" s="7">
-        <v>191712</v>
+        <v>175409</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1327,7 +1330,7 @@
         <v>484</v>
       </c>
       <c r="N7" s="7">
-        <v>360896</v>
+        <v>340181</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1348,7 +1351,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="7">
-        <v>24227</v>
+        <v>23358</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -1363,7 +1366,7 @@
         <v>30</v>
       </c>
       <c r="I8" s="7">
-        <v>17374</v>
+        <v>15920</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -1378,7 +1381,7 @@
         <v>54</v>
       </c>
       <c r="N8" s="7">
-        <v>41601</v>
+        <v>39278</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -1399,7 +1402,7 @@
         <v>259</v>
       </c>
       <c r="D9" s="7">
-        <v>233854</v>
+        <v>226475</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -1414,7 +1417,7 @@
         <v>426</v>
       </c>
       <c r="I9" s="7">
-        <v>277731</v>
+        <v>253144</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -1429,7 +1432,7 @@
         <v>685</v>
       </c>
       <c r="N9" s="7">
-        <v>511585</v>
+        <v>479618</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -1452,7 +1455,7 @@
         <v>108</v>
       </c>
       <c r="D10" s="7">
-        <v>195003</v>
+        <v>387192</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -1467,31 +1470,31 @@
         <v>185</v>
       </c>
       <c r="I10" s="7">
-        <v>134798</v>
+        <v>125354</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>293</v>
       </c>
       <c r="N10" s="7">
-        <v>329801</v>
+        <v>512546</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1503,28 +1506,28 @@
         <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>3217</v>
+        <v>3122</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
       </c>
       <c r="I11" s="7">
-        <v>13847</v>
+        <v>12886</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>75</v>
@@ -1533,7 +1536,7 @@
         <v>25</v>
       </c>
       <c r="N11" s="7">
-        <v>17063</v>
+        <v>16008</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1554,46 +1557,46 @@
         <v>40</v>
       </c>
       <c r="D12" s="7">
-        <v>36589</v>
+        <v>33560</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>44</v>
       </c>
       <c r="I12" s="7">
-        <v>33307</v>
+        <v>29960</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>84</v>
       </c>
       <c r="N12" s="7">
-        <v>69897</v>
+        <v>63520</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1605,46 +1608,46 @@
         <v>1064</v>
       </c>
       <c r="D13" s="7">
-        <v>1207870</v>
+        <v>1183419</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>1517</v>
       </c>
       <c r="I13" s="7">
-        <v>1198096</v>
+        <v>1172266</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>2581</v>
       </c>
       <c r="N13" s="7">
-        <v>2405965</v>
+        <v>2355685</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,46 +1659,46 @@
         <v>110</v>
       </c>
       <c r="D14" s="7">
-        <v>120171</v>
+        <v>117226</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>199</v>
       </c>
       <c r="I14" s="7">
-        <v>146706</v>
+        <v>133278</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>309</v>
       </c>
       <c r="N14" s="7">
-        <v>266877</v>
+        <v>250504</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,7 +1710,7 @@
         <v>1327</v>
       </c>
       <c r="D15" s="7">
-        <v>1562850</v>
+        <v>1724519</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -1722,7 +1725,7 @@
         <v>1965</v>
       </c>
       <c r="I15" s="7">
-        <v>1526754</v>
+        <v>1473744</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -1737,7 +1740,7 @@
         <v>3292</v>
       </c>
       <c r="N15" s="7">
-        <v>3089603</v>
+        <v>3198263</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -1751,7 +1754,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1760,46 +1763,46 @@
         <v>38</v>
       </c>
       <c r="D16" s="7">
-        <v>45918</v>
+        <v>44572</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
       </c>
       <c r="I16" s="7">
-        <v>46748</v>
+        <v>42984</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>99</v>
       </c>
       <c r="N16" s="7">
-        <v>92666</v>
+        <v>87556</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,40 +1814,40 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>2572</v>
+        <v>2342</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>2732</v>
+        <v>2506</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>121</v>
@@ -1862,7 +1865,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="7">
-        <v>25650</v>
+        <v>28679</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>123</v>
@@ -1877,7 +1880,7 @@
         <v>21</v>
       </c>
       <c r="I18" s="7">
-        <v>13013</v>
+        <v>12108</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>126</v>
@@ -1892,7 +1895,7 @@
         <v>45</v>
       </c>
       <c r="N18" s="7">
-        <v>38663</v>
+        <v>40787</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>129</v>
@@ -1901,7 +1904,7 @@
         <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,46 +1916,46 @@
         <v>314</v>
       </c>
       <c r="D19" s="7">
-        <v>338245</v>
+        <v>324605</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>517</v>
       </c>
       <c r="I19" s="7">
-        <v>384516</v>
+        <v>357540</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>831</v>
       </c>
       <c r="N19" s="7">
-        <v>722761</v>
+        <v>682144</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,46 +1967,46 @@
         <v>26</v>
       </c>
       <c r="D20" s="7">
-        <v>25496</v>
+        <v>24295</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
       </c>
       <c r="I20" s="7">
-        <v>32670</v>
+        <v>29187</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>73</v>
       </c>
       <c r="N20" s="7">
-        <v>58165</v>
+        <v>53482</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2015,7 +2018,7 @@
         <v>403</v>
       </c>
       <c r="D21" s="7">
-        <v>435468</v>
+        <v>422315</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -2030,7 +2033,7 @@
         <v>650</v>
       </c>
       <c r="I21" s="7">
-        <v>479518</v>
+        <v>444161</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -2045,7 +2048,7 @@
         <v>1053</v>
       </c>
       <c r="N21" s="7">
-        <v>914987</v>
+        <v>866475</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -2068,46 +2071,46 @@
         <v>175</v>
       </c>
       <c r="D22" s="7">
-        <v>266040</v>
+        <v>455994</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>321</v>
       </c>
       <c r="I22" s="7">
-        <v>227724</v>
+        <v>210887</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>496</v>
       </c>
       <c r="N22" s="7">
-        <v>493764</v>
+        <v>666881</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,46 +2122,46 @@
         <v>9</v>
       </c>
       <c r="D23" s="7">
-        <v>6417</v>
+        <v>6191</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
       </c>
       <c r="I23" s="7">
-        <v>20717</v>
+        <v>19205</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>40</v>
       </c>
       <c r="N23" s="7">
-        <v>27134</v>
+        <v>25396</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,46 +2173,46 @@
         <v>78</v>
       </c>
       <c r="D24" s="7">
-        <v>74521</v>
+        <v>73448</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>84</v>
       </c>
       <c r="I24" s="7">
-        <v>64490</v>
+        <v>57357</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>162</v>
       </c>
       <c r="N24" s="7">
-        <v>139011</v>
+        <v>130805</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,46 +2224,46 @@
         <v>1567</v>
       </c>
       <c r="D25" s="7">
-        <v>1715299</v>
+        <v>1672796</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>2329</v>
       </c>
       <c r="I25" s="7">
-        <v>1774323</v>
+        <v>1705214</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>3896</v>
       </c>
       <c r="N25" s="7">
-        <v>3489622</v>
+        <v>3378011</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2272,46 +2275,46 @@
         <v>160</v>
       </c>
       <c r="D26" s="7">
-        <v>169894</v>
+        <v>164879</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>276</v>
       </c>
       <c r="I26" s="7">
-        <v>196749</v>
+        <v>178384</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>436</v>
       </c>
       <c r="N26" s="7">
-        <v>366644</v>
+        <v>343263</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,7 +2326,7 @@
         <v>1989</v>
       </c>
       <c r="D27" s="7">
-        <v>2232172</v>
+        <v>2373308</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -2338,7 +2341,7 @@
         <v>3041</v>
       </c>
       <c r="I27" s="7">
-        <v>2284003</v>
+        <v>2171048</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -2353,7 +2356,7 @@
         <v>5030</v>
       </c>
       <c r="N27" s="7">
-        <v>4516174</v>
+        <v>4544357</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -2367,7 +2370,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
